--- a/test.xlsx
+++ b/test.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarangmdeshpande/Documents/MMWW Work/media_mix_model/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC80F46-A4BE-BB4D-B4CE-0777E1D4C4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Publisher-Tactic</t>
   </si>
@@ -58,14 +76,20 @@
     <t>YouTube_MediaCost</t>
   </si>
   <si>
-    <t>Spend</t>
+    <t>Channel Attributed Revenue</t>
+  </si>
+  <si>
+    <t>Channel Spending</t>
+  </si>
+  <si>
+    <t>Attribution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +135,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +221,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +273,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,14 +466,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A7:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A7:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +504,14 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -441,8 +527,18 @@
       <c r="E8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>53657.600756886422</v>
+      </c>
+      <c r="G8">
+        <v>28364.03917</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H16" si="0">F8/G8</f>
+        <v>1.8917475199949254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -458,8 +554,18 @@
       <c r="E9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>40415.345815577537</v>
+      </c>
+      <c r="G9">
+        <v>226178.03</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.17868820333954424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -475,8 +581,18 @@
       <c r="E10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>750136.65999999922</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -484,7 +600,7 @@
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -492,16 +608,26 @@
       <c r="E11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>3002058.0159691898</v>
+      </c>
+      <c r="G11">
+        <v>2016185.3399410001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.4889791908005041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -509,8 +635,18 @@
       <c r="E12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>85542.047903188504</v>
+      </c>
+      <c r="G12">
+        <v>2329005.463138999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3.6729002682499595E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -526,8 +662,18 @@
       <c r="E13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>203998.0439231247</v>
+      </c>
+      <c r="G13">
+        <v>60928.949999999983</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.3481299763597558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -543,8 +689,18 @@
       <c r="E14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>16920.756026579071</v>
+      </c>
+      <c r="G14">
+        <v>247458</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>6.837829460586875E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -560,22 +716,42 @@
       <c r="E15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>329666.91835300002</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <v>0.1</v>
+      </c>
+      <c r="F16">
+        <v>1705860.4153156639</v>
+      </c>
+      <c r="G16">
+        <v>295913.59982399998</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>5.7647246234382452</v>
       </c>
     </row>
   </sheetData>
